--- a/template/gwtz.xlsx
+++ b/template/gwtz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E559F534-8E3D-4C41-AE5D-195DB3A20A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49A9B37-7C53-4166-8514-E06658144D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19305" yWindow="2565" windowWidth="30945" windowHeight="15015" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,67 +20,60 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>公务团组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>主题词</t>
+  </si>
+  <si>
+    <t>审批表</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
     <t>年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>团组名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>组团单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>台湾邀请单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
   </si>
   <si>
     <t>报批赴台时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际赴台时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行程</t>
   </si>
 </sst>
 </file>
@@ -129,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,13 +145,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,7 +170,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,77 +490,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/gwtz.xlsx
+++ b/template/gwtz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49A9B37-7C53-4166-8514-E06658144D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7408790D-E67F-4EE3-BC1D-4BF2D0E30243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="2055" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>公务团组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>主题词</t>
-  </si>
-  <si>
-    <t>审批表</t>
   </si>
   <si>
     <t>序号</t>
@@ -122,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,22 +142,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,7 +161,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -512,58 +503,58 @@
     <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>1</v>
@@ -574,15 +565,12 @@
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
